--- a/SchedulingData/dynamic10/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,74 +466,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>265.92</v>
+        <v>265.54</v>
       </c>
       <c r="D2" t="n">
-        <v>323.62</v>
+        <v>326.68</v>
       </c>
       <c r="E2" t="n">
-        <v>14.208</v>
+        <v>12.412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>323.62</v>
+        <v>204.24</v>
       </c>
       <c r="D3" t="n">
-        <v>383.68</v>
+        <v>263</v>
       </c>
       <c r="E3" t="n">
-        <v>11.832</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>225.74</v>
+        <v>230.34</v>
       </c>
       <c r="D4" t="n">
-        <v>289.64</v>
+        <v>262.54</v>
       </c>
       <c r="E4" t="n">
-        <v>8.736000000000001</v>
+        <v>12.576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>232.3</v>
+        <v>220.34</v>
       </c>
       <c r="D5" t="n">
-        <v>288.9</v>
+        <v>254.96</v>
       </c>
       <c r="E5" t="n">
-        <v>12.74</v>
+        <v>12.684</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>243.6</v>
+        <v>200.16</v>
       </c>
       <c r="D6" t="n">
-        <v>281.42</v>
+        <v>237.86</v>
       </c>
       <c r="E6" t="n">
-        <v>10.668</v>
+        <v>15.384</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>288.9</v>
+        <v>262.54</v>
       </c>
       <c r="D7" t="n">
-        <v>334.48</v>
+        <v>306.82</v>
       </c>
       <c r="E7" t="n">
-        <v>10.292</v>
+        <v>9.768000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>218</v>
+        <v>306.82</v>
       </c>
       <c r="D8" t="n">
-        <v>250.9</v>
+        <v>367.12</v>
       </c>
       <c r="E8" t="n">
-        <v>17.88</v>
+        <v>7.348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>334.48</v>
+        <v>237.86</v>
       </c>
       <c r="D9" t="n">
-        <v>382.14</v>
+        <v>307.38</v>
       </c>
       <c r="E9" t="n">
-        <v>7.156</v>
+        <v>11.072</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>220.16</v>
+        <v>254.96</v>
       </c>
       <c r="D10" t="n">
-        <v>289.02</v>
+        <v>304.92</v>
       </c>
       <c r="E10" t="n">
-        <v>16.548</v>
+        <v>10.308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>281.42</v>
+        <v>367.12</v>
       </c>
       <c r="D11" t="n">
-        <v>320.9</v>
+        <v>415.78</v>
       </c>
       <c r="E11" t="n">
-        <v>7.86</v>
+        <v>4.592</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>289.02</v>
+        <v>304.92</v>
       </c>
       <c r="D12" t="n">
-        <v>322.98</v>
+        <v>373.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.792</v>
+        <v>7.604</v>
       </c>
     </row>
     <row r="13">
@@ -675,79 +675,79 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>383.68</v>
+        <v>326.68</v>
       </c>
       <c r="D13" t="n">
-        <v>429.74</v>
+        <v>402.32</v>
       </c>
       <c r="E13" t="n">
-        <v>9.336</v>
+        <v>9.448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>322.98</v>
+        <v>263.78</v>
       </c>
       <c r="D14" t="n">
-        <v>389.52</v>
+        <v>342.14</v>
       </c>
       <c r="E14" t="n">
-        <v>10.768</v>
+        <v>13.396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>250.9</v>
+        <v>307.38</v>
       </c>
       <c r="D15" t="n">
-        <v>313.4</v>
+        <v>361.8</v>
       </c>
       <c r="E15" t="n">
-        <v>15.24</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>313.4</v>
+        <v>415.78</v>
       </c>
       <c r="D16" t="n">
-        <v>361.52</v>
+        <v>462.98</v>
       </c>
       <c r="E16" t="n">
-        <v>12.048</v>
+        <v>2.472</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>361.52</v>
+        <v>342.14</v>
       </c>
       <c r="D17" t="n">
-        <v>413.84</v>
+        <v>379.36</v>
       </c>
       <c r="E17" t="n">
-        <v>9.456</v>
+        <v>10.804</v>
       </c>
     </row>
     <row r="18">
@@ -770,55 +770,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>289.64</v>
+        <v>379.36</v>
       </c>
       <c r="D18" t="n">
-        <v>345.8</v>
+        <v>427.02</v>
       </c>
       <c r="E18" t="n">
-        <v>5.72</v>
+        <v>7.668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>320.9</v>
+        <v>263</v>
       </c>
       <c r="D19" t="n">
-        <v>375.32</v>
+        <v>325.42</v>
       </c>
       <c r="E19" t="n">
-        <v>5.528</v>
+        <v>10.548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>382.14</v>
+        <v>373.06</v>
       </c>
       <c r="D20" t="n">
-        <v>416.62</v>
+        <v>432.14</v>
       </c>
       <c r="E20" t="n">
-        <v>4.348</v>
+        <v>4.796</v>
       </c>
     </row>
     <row r="21">
@@ -827,188 +827,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>429.74</v>
+        <v>402.32</v>
       </c>
       <c r="D21" t="n">
-        <v>482.34</v>
+        <v>486.22</v>
       </c>
       <c r="E21" t="n">
-        <v>7.216</v>
+        <v>6.148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>413.84</v>
+        <v>486.22</v>
       </c>
       <c r="D22" t="n">
-        <v>467.18</v>
+        <v>546.98</v>
       </c>
       <c r="E22" t="n">
-        <v>6.752</v>
+        <v>3.652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>375.32</v>
+        <v>432.14</v>
       </c>
       <c r="D23" t="n">
-        <v>424.52</v>
+        <v>492.92</v>
       </c>
       <c r="E23" t="n">
-        <v>2.228</v>
+        <v>2.348</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>345.8</v>
+        <v>325.42</v>
       </c>
       <c r="D24" t="n">
-        <v>395.12</v>
+        <v>378.02</v>
       </c>
       <c r="E24" t="n">
-        <v>3.388</v>
+        <v>8.388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>389.52</v>
+        <v>378.02</v>
       </c>
       <c r="D25" t="n">
-        <v>433.82</v>
+        <v>429.16</v>
       </c>
       <c r="E25" t="n">
-        <v>7.468</v>
+        <v>4.904</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>395.12</v>
+        <v>361.8</v>
       </c>
       <c r="D26" t="n">
-        <v>443.72</v>
+        <v>411</v>
       </c>
       <c r="E26" t="n">
-        <v>0.148</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>443.72</v>
+        <v>411</v>
       </c>
       <c r="D27" t="n">
-        <v>530.02</v>
+        <v>469.4</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond16</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>433.82</v>
-      </c>
-      <c r="D28" t="n">
-        <v>494.32</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.048</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond61</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>416.62</v>
-      </c>
-      <c r="D29" t="n">
-        <v>455.38</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.612</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>455.38</v>
-      </c>
-      <c r="D30" t="n">
-        <v>543.86</v>
-      </c>
-      <c r="E30" t="n">
-        <v>30</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
